--- a/Note/mess/函数速查集.xlsx
+++ b/Note/mess/函数速查集.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\arch\home\carry\gitRep\Note\mess\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025E5DD-9DD6-44C7-B3DC-0575A8AE1B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="190">
   <si>
     <t>功能</t>
   </si>
@@ -323,7 +329,7 @@
         <sz val="10.5"/>
         <color rgb="FF0098DD"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>struct</t>
     </r>
@@ -332,7 +338,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -341,7 +347,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sockaddr_in</t>
     </r>
@@ -352,7 +358,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sa_family_t</t>
     </r>
@@ -361,7 +367,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -370,7 +376,7 @@
         <sz val="10.5"/>
         <color rgb="FFA05A48"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sin_family</t>
     </r>
@@ -379,7 +385,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -393,7 +399,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>in_port_t</t>
     </r>
@@ -402,7 +408,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -411,7 +417,7 @@
         <sz val="10.5"/>
         <color rgb="FFA05A48"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sin_port</t>
     </r>
@@ -420,7 +426,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -434,7 +440,7 @@
         <sz val="10.5"/>
         <color rgb="FF0098DD"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>struct</t>
     </r>
@@ -443,7 +449,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -452,7 +458,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>in_addr</t>
     </r>
@@ -461,7 +467,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -470,7 +476,7 @@
         <sz val="10.5"/>
         <color rgb="FFA05A48"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sin_addr</t>
     </r>
@@ -479,7 +485,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -505,7 +511,7 @@
         <sz val="10.5"/>
         <color rgb="FF0098DD"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>struct</t>
     </r>
@@ -514,7 +520,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -523,7 +529,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>in_addr</t>
     </r>
@@ -534,7 +540,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>uint32_t</t>
     </r>
@@ -543,7 +549,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -552,7 +558,7 @@
         <sz val="10.5"/>
         <color rgb="FFA05A48"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>s_addr</t>
     </r>
@@ -561,7 +567,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -575,7 +581,7 @@
         <sz val="10.5"/>
         <color rgb="FF0098DD"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>struct</t>
     </r>
@@ -584,7 +590,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -593,7 +599,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sockaddr</t>
     </r>
@@ -604,7 +610,7 @@
         <sz val="10.5"/>
         <color rgb="FFD52753"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sa_family_t</t>
     </r>
@@ -613,7 +619,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -622,7 +628,7 @@
         <sz val="10.5"/>
         <color rgb="FFA05A48"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sa_family</t>
     </r>
@@ -631,7 +637,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>;</t>
     </r>
@@ -642,7 +648,7 @@
         <sz val="10.5"/>
         <color rgb="FF0098DD"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>char</t>
     </r>
@@ -651,7 +657,7 @@
         <sz val="10.5"/>
         <color rgb="FF383A42"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -660,7 +666,7 @@
         <sz val="10.5"/>
         <color rgb="FFA05A48"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>sa_data</t>
     </r>
@@ -669,7 +675,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>[</t>
     </r>
@@ -678,7 +684,7 @@
         <sz val="10.5"/>
         <color rgb="FFCE33C0"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>14</t>
     </r>
@@ -687,7 +693,7 @@
         <sz val="10.5"/>
         <color rgb="FF7A82DA"/>
         <rFont val="Fira Code"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>];</t>
     </r>
@@ -1211,18 +1217,136 @@
   <si>
     <t>文件监听集合</t>
   </si>
+  <si>
+    <t>时间数据类型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include: &lt;sys/types.h&gt;, &lt;sys/select.h&gt;, or &lt;sys/time.h&gt;.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>typedef long time_t;</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一个值，从1970年1月1日0时0分0秒到现在的秒数</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;sys/select.h&gt;</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;time.h&gt;</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_t time(time_t *tloc);</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tloc</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>若tloc非空，则时间同样会保存到tloc指向的内存中</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>把time_t表示的时间转换为struct tm结构体表示的时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>struct tm *localtime(const time_t *timep);</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>timep</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>要转换的时间对象(time_t *)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>把struct tm表示的时间转换为time_t表示的时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_t mktime(struct tm *tm);</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tm</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>要转换的时间对象(struct tm*)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得当前的秒和微秒的时间，其中的秒是指1970年1月1日到现在的秒，微秒是指当前秒已逝去的微秒数，可以用于程序的计时</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> #include &lt;sys/time.h&gt;</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> int gettimeofday(struct timeval *restrict tp, void *restrict tzp);</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tzp</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储时间的容器</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功：0</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败：错误</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般为NULL</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeval、timezone结构体和gettimeofday函数在windows平台中不能使用</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功：时间</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败：-1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1246,13 +1370,13 @@
       <sz val="10.5"/>
       <color rgb="FF0098DD"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFD52753"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1269,172 +1393,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF383A42"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFA05A48"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF7A82DA"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFCE33C0"/>
       <name val="Fira Code"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1449,202 +1429,36 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF0098DD"/>
+      <name val="Fira Code"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1997,252 +1811,30 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2255,233 +1847,243 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2768,1870 +2370,2050 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:I171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:I203"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:E70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A182" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.9537037037037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="20.8796296296296" style="1" customWidth="1"/>
-    <col min="8" max="8" width="31.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.8888888888889" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="2:6">
+    <row r="2" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" customHeight="1" spans="2:6">
-      <c r="B3" s="7" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" customHeight="1" spans="2:6">
-      <c r="B4" s="7" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" ht="31" customHeight="1" spans="2:6">
-      <c r="B5" s="7" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" ht="28.8" spans="2:6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="10" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="12" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" customHeight="1" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" customHeight="1" spans="2:6">
-      <c r="B9" s="7" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" customHeight="1" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="36">
         <v>-1</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:6">
-      <c r="B11" s="15" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="13" customHeight="1" spans="2:5">
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="2:5">
-      <c r="B14" s="7" t="s">
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:5">
-      <c r="B15" s="7" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:5">
-      <c r="B16" s="7" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" ht="57.6" spans="2:5">
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="2:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:5">
-      <c r="B18" s="7"/>
-      <c r="C18" s="12" t="s">
+    <row r="18" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="C18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:5">
-      <c r="B19" s="7" t="s">
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:5">
-      <c r="B20" s="7"/>
-      <c r="C20" s="10" t="s">
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" customHeight="1" spans="2:5">
-      <c r="B21" s="15" t="s">
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:5">
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="23" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:5">
-      <c r="B24" s="7" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:5">
-      <c r="B25" s="7" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:5">
-      <c r="B26" s="7" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="20"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:5">
-      <c r="B27" s="7"/>
-      <c r="C27" s="10" t="s">
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:5">
-      <c r="B28" s="7" t="s">
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="36">
         <v>0</v>
       </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:5">
-      <c r="B29" s="7"/>
-      <c r="C29" s="10" t="s">
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:5">
-      <c r="B30" s="15" t="s">
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="32" customHeight="1" spans="2:5">
+      <c r="D30" s="44"/>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="32" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" customHeight="1" spans="2:5">
-      <c r="B33" s="7" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="35"/>
+    </row>
+    <row r="33" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" customHeight="1" spans="2:5">
-      <c r="B34" s="7" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+    </row>
+    <row r="34" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" customHeight="1" spans="2:5">
-      <c r="B35" s="7" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+    </row>
+    <row r="35" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" ht="57.6" spans="2:5">
-      <c r="B36" s="7"/>
-      <c r="C36" s="10" t="s">
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="2:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="C36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="2:5">
-      <c r="B37" s="7"/>
-      <c r="C37" s="12" t="s">
+    <row r="37" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="C37" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" customHeight="1" spans="2:5">
-      <c r="B38" s="7" t="s">
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="36">
         <v>0</v>
       </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" customHeight="1" spans="2:5">
-      <c r="B39" s="7"/>
-      <c r="C39" s="10" t="s">
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" customHeight="1" spans="2:5">
-      <c r="B40" s="15" t="s">
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="42" customHeight="1" spans="2:5">
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+    </row>
+    <row r="42" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" customHeight="1" spans="2:5">
-      <c r="B43" s="7" t="s">
+      <c r="D42" s="34"/>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" customHeight="1" spans="2:5">
-      <c r="B44" s="7" t="s">
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+    </row>
+    <row r="44" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" customHeight="1" spans="2:5">
-      <c r="B45" s="7" t="s">
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+    </row>
+    <row r="45" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" ht="57.6" spans="2:5">
-      <c r="B46" s="7"/>
-      <c r="C46" s="10" t="s">
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="2:5" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="2:5">
-      <c r="B47" s="7"/>
-      <c r="C47" s="12" t="s">
+    <row r="47" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" customHeight="1" spans="2:5">
-      <c r="B48" s="7" t="s">
+      <c r="E47" s="41"/>
+    </row>
+    <row r="48" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="36">
         <v>0</v>
       </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:5">
-      <c r="B49" s="7"/>
-      <c r="C49" s="10" t="s">
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" customHeight="1" spans="2:5">
-      <c r="B50" s="15" t="s">
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-    </row>
-    <row r="52" customHeight="1" spans="2:5">
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+    </row>
+    <row r="52" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:5">
-      <c r="B53" s="7" t="s">
+      <c r="D52" s="34"/>
+      <c r="E52" s="35"/>
+    </row>
+    <row r="53" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:5">
-      <c r="B54" s="7" t="s">
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
+    </row>
+    <row r="54" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" customHeight="1" spans="2:5">
-      <c r="B55" s="7" t="s">
+      <c r="D54" s="36"/>
+      <c r="E54" s="37"/>
+    </row>
+    <row r="55" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" customHeight="1" spans="2:5">
-      <c r="B56" s="7"/>
-      <c r="C56" s="10" t="s">
+      <c r="E55" s="41"/>
+    </row>
+    <row r="56" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="C56" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="20"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:5">
-      <c r="B57" s="7"/>
-      <c r="C57" s="12" t="s">
+      <c r="E56" s="41"/>
+    </row>
+    <row r="57" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" customHeight="1" spans="2:5">
-      <c r="B58" s="7" t="s">
+      <c r="E57" s="41"/>
+    </row>
+    <row r="58" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" customHeight="1" spans="2:5">
-      <c r="B59" s="7"/>
-      <c r="C59" s="10" t="s">
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="59" t="s">
+      <c r="D59" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" customHeight="1" spans="2:5">
-      <c r="B60" s="15" t="s">
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-    </row>
-    <row r="62" customHeight="1" spans="2:5">
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+    </row>
+    <row r="62" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" customHeight="1" spans="2:5">
-      <c r="B63" s="7" t="s">
+      <c r="D62" s="34"/>
+      <c r="E62" s="35"/>
+    </row>
+    <row r="63" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:9">
-      <c r="B64" s="7" t="s">
+      <c r="D63" s="36"/>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="G64" s="28" t="s">
+      <c r="D64" s="36"/>
+      <c r="E64" s="37"/>
+      <c r="G64" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H64" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I64" s="28" t="s">
+      <c r="I64" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="2:9">
-      <c r="B65" s="7" t="s">
+    <row r="65" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C65" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="G65" s="29" t="s">
+      <c r="E65" s="41"/>
+      <c r="G65" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="H65" s="30" t="s">
+      <c r="H65" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I65" s="47" t="s">
+      <c r="I65" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="2:9">
-      <c r="B66" s="7"/>
-      <c r="C66" s="10" t="s">
+    <row r="66" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="32" t="s">
+      <c r="E66" s="41"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I66" s="48" t="s">
+      <c r="I66" s="30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="2:9">
-      <c r="B67" s="7"/>
-      <c r="C67" s="12" t="s">
+    <row r="67" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="5"/>
+      <c r="C67" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="33" t="s">
+      <c r="E67" s="41"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="I67" s="48" t="s">
+      <c r="I67" s="30" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="2:9">
-      <c r="B68" s="7"/>
-      <c r="C68" s="12" t="s">
+    <row r="68" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="35" t="s">
+      <c r="E68" s="16"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="I68" s="49" t="s">
+      <c r="I68" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="2:9">
-      <c r="B69" s="7" t="s">
+    <row r="69" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="G69" s="36" t="s">
+      <c r="E69" s="37"/>
+      <c r="G69" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="H69" s="37" t="s">
+      <c r="H69" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="28" t="s">
+      <c r="I69" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="2:9">
-      <c r="B70" s="7"/>
-      <c r="C70" s="10" t="s">
+    <row r="70" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="G70" s="38" t="s">
+      <c r="E70" s="37"/>
+      <c r="G70" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I70" s="47" t="s">
+      <c r="I70" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="2:9">
-      <c r="B71" s="15" t="s">
+    <row r="71" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="40" t="s">
+      <c r="D71" s="47"/>
+      <c r="E71" s="48"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="I71" s="49" t="s">
+      <c r="I71" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="2:5">
+    <row r="73" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" customHeight="1" spans="2:5">
-      <c r="B74" s="7" t="s">
+      <c r="D73" s="34"/>
+      <c r="E73" s="35"/>
+    </row>
+    <row r="74" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" customHeight="1" spans="2:5">
-      <c r="B75" s="7" t="s">
+      <c r="D74" s="36"/>
+      <c r="E74" s="37"/>
+    </row>
+    <row r="75" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" customHeight="1" spans="2:5">
-      <c r="B76" s="7" t="s">
+      <c r="D75" s="36"/>
+      <c r="E75" s="37"/>
+    </row>
+    <row r="76" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" customHeight="1" spans="2:5">
-      <c r="B77" s="7"/>
-      <c r="C77" s="10" t="s">
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="5"/>
+      <c r="C77" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="20"/>
-    </row>
-    <row r="78" customHeight="1" spans="2:5">
-      <c r="B78" s="7"/>
-      <c r="C78" s="12" t="s">
+      <c r="E77" s="41"/>
+    </row>
+    <row r="78" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" customHeight="1" spans="2:5">
-      <c r="B79" s="7"/>
-      <c r="C79" s="12" t="s">
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E79" s="20"/>
-    </row>
-    <row r="80" customHeight="1" spans="2:5">
-      <c r="B80" s="7" t="s">
+      <c r="E79" s="16"/>
+    </row>
+    <row r="80" spans="2:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="9"/>
-    </row>
-    <row r="81" customHeight="1" spans="2:5">
-      <c r="B81" s="7"/>
-      <c r="C81" s="10" t="s">
+      <c r="E80" s="37"/>
+    </row>
+    <row r="81" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E81" s="9"/>
-    </row>
-    <row r="82" customHeight="1" spans="2:5">
-      <c r="B82" s="15" t="s">
+      <c r="E81" s="37"/>
+    </row>
+    <row r="82" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="C82" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27"/>
-    </row>
-    <row r="84" customHeight="1" spans="2:5">
+      <c r="D82" s="47"/>
+      <c r="E82" s="48"/>
+    </row>
+    <row r="84" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" customHeight="1" spans="2:5">
-      <c r="B85" s="7" t="s">
+      <c r="D84" s="34"/>
+      <c r="E84" s="35"/>
+    </row>
+    <row r="85" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" customHeight="1" spans="2:5">
-      <c r="B86" s="7" t="s">
+      <c r="D85" s="36"/>
+      <c r="E85" s="37"/>
+    </row>
+    <row r="86" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" customHeight="1" spans="2:5">
-      <c r="B87" s="7" t="s">
+      <c r="D86" s="36"/>
+      <c r="E86" s="37"/>
+    </row>
+    <row r="87" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="20"/>
-    </row>
-    <row r="88" customHeight="1" spans="2:5">
-      <c r="B88" s="7" t="s">
+      <c r="E87" s="41"/>
+    </row>
+    <row r="88" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" customHeight="1" spans="2:5">
-      <c r="B89" s="7"/>
-      <c r="C89" s="10" t="s">
+      <c r="E88" s="37"/>
+    </row>
+    <row r="89" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E89" s="9"/>
-    </row>
-    <row r="90" customHeight="1" spans="2:5">
-      <c r="B90" s="15" t="s">
+      <c r="E89" s="37"/>
+    </row>
+    <row r="90" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="27"/>
-    </row>
-    <row r="92" customHeight="1" spans="2:5">
+      <c r="D90" s="47"/>
+      <c r="E90" s="48"/>
+    </row>
+    <row r="92" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D92" s="4"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" customHeight="1" spans="2:5">
-      <c r="B93" s="7" t="s">
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+    </row>
+    <row r="93" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="9"/>
-    </row>
-    <row r="94" customHeight="1" spans="2:5">
-      <c r="B94" s="7" t="s">
+      <c r="D93" s="36"/>
+      <c r="E93" s="37"/>
+    </row>
+    <row r="94" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="9"/>
-    </row>
-    <row r="95" customHeight="1" spans="2:5">
-      <c r="B95" s="7" t="s">
+      <c r="D94" s="36"/>
+      <c r="E94" s="37"/>
+    </row>
+    <row r="95" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E95" s="20"/>
-    </row>
-    <row r="96" customHeight="1" spans="2:5">
-      <c r="B96" s="7" t="s">
+      <c r="E95" s="41"/>
+    </row>
+    <row r="96" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E96" s="9"/>
-    </row>
-    <row r="97" customHeight="1" spans="2:5">
-      <c r="B97" s="7"/>
-      <c r="C97" s="10" t="s">
+      <c r="E96" s="37"/>
+    </row>
+    <row r="97" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E97" s="9"/>
-    </row>
-    <row r="98" customHeight="1" spans="2:5">
-      <c r="B98" s="15" t="s">
+      <c r="E97" s="37"/>
+    </row>
+    <row r="98" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="27"/>
-    </row>
-    <row r="100" customHeight="1" spans="2:5">
+      <c r="D98" s="47"/>
+      <c r="E98" s="48"/>
+    </row>
+    <row r="100" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="4"/>
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" customHeight="1" spans="2:5">
-      <c r="B101" s="7" t="s">
+      <c r="D100" s="34"/>
+      <c r="E100" s="35"/>
+    </row>
+    <row r="101" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="9"/>
-    </row>
-    <row r="102" ht="37" customHeight="1" spans="2:5">
-      <c r="B102" s="7" t="s">
+      <c r="D101" s="36"/>
+      <c r="E101" s="37"/>
+    </row>
+    <row r="102" spans="2:5" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="9"/>
-    </row>
-    <row r="103" customHeight="1" spans="2:5">
-      <c r="B103" s="42" t="s">
+      <c r="D102" s="36"/>
+      <c r="E102" s="37"/>
+    </row>
+    <row r="103" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="20"/>
-    </row>
-    <row r="104" customHeight="1" spans="2:5">
-      <c r="B104" s="43"/>
-      <c r="C104" s="12" t="s">
+      <c r="E103" s="41"/>
+    </row>
+    <row r="104" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="56"/>
+      <c r="C104" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" customHeight="1" spans="2:5">
-      <c r="B105" s="43"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="19" t="s">
+      <c r="E104" s="41"/>
+    </row>
+    <row r="105" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="56"/>
+      <c r="C105" s="59"/>
+      <c r="D105" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E105" s="20"/>
-    </row>
-    <row r="106" customHeight="1" spans="2:5">
-      <c r="B106" s="43"/>
-      <c r="C106" s="12" t="s">
+      <c r="E105" s="41"/>
+    </row>
+    <row r="106" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="56"/>
+      <c r="C106" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="2:5">
-      <c r="B107" s="43"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="8" t="s">
+    <row r="107" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="56"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="2:5">
-      <c r="B108" s="43"/>
-      <c r="C108" s="14" t="s">
+    <row r="108" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="56"/>
+      <c r="C108" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E108" s="20"/>
-    </row>
-    <row r="109" customHeight="1" spans="2:5">
-      <c r="B109" s="44"/>
-      <c r="C109" s="10" t="s">
+      <c r="E108" s="41"/>
+    </row>
+    <row r="109" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="57"/>
+      <c r="C109" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E109" s="20"/>
-    </row>
-    <row r="110" customHeight="1" spans="2:5">
-      <c r="B110" s="45" t="s">
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="36">
         <v>0</v>
       </c>
-      <c r="E110" s="9"/>
-    </row>
-    <row r="111" customHeight="1" spans="2:5">
-      <c r="B111" s="46"/>
-      <c r="C111" s="10" t="s">
+      <c r="E110" s="37"/>
+    </row>
+    <row r="111" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="57"/>
+      <c r="C111" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E111" s="9"/>
-    </row>
-    <row r="112" customHeight="1" spans="2:5">
-      <c r="B112" s="15" t="s">
+      <c r="E111" s="37"/>
+    </row>
+    <row r="112" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C112" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="D112" s="26"/>
-      <c r="E112" s="27"/>
-    </row>
-    <row r="114" customHeight="1" spans="2:5">
+      <c r="D112" s="47"/>
+      <c r="E112" s="48"/>
+    </row>
+    <row r="114" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="4"/>
-      <c r="E114" s="5"/>
-    </row>
-    <row r="115" customHeight="1" spans="2:5">
-      <c r="B115" s="7" t="s">
+      <c r="D114" s="34"/>
+      <c r="E114" s="35"/>
+    </row>
+    <row r="115" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-    </row>
-    <row r="116" ht="35" customHeight="1" spans="2:5">
-      <c r="B116" s="7" t="s">
+      <c r="D115" s="36"/>
+      <c r="E115" s="37"/>
+    </row>
+    <row r="116" spans="2:5" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" customHeight="1" spans="2:5">
-      <c r="B117" s="42" t="s">
+      <c r="D116" s="36"/>
+      <c r="E116" s="37"/>
+    </row>
+    <row r="117" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" customHeight="1" spans="2:5">
-      <c r="B118" s="43"/>
-      <c r="C118" s="10" t="s">
+      <c r="E117" s="41"/>
+    </row>
+    <row r="118" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="56"/>
+      <c r="C118" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" customHeight="1" spans="2:5">
-      <c r="B119" s="43"/>
-      <c r="C119" s="10" t="s">
+      <c r="E118" s="41"/>
+    </row>
+    <row r="119" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="56"/>
+      <c r="C119" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" customHeight="1" spans="2:5">
-      <c r="B120" s="43"/>
-      <c r="C120" s="10" t="s">
+      <c r="E119" s="41"/>
+    </row>
+    <row r="120" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" s="56"/>
+      <c r="C120" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" customHeight="1" spans="2:5">
-      <c r="B121" s="43"/>
-      <c r="C121" s="10" t="s">
+      <c r="E120" s="41"/>
+    </row>
+    <row r="121" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="56"/>
+      <c r="C121" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" customHeight="1" spans="2:5">
-      <c r="B122" s="44"/>
-      <c r="C122" s="10" t="s">
+      <c r="E121" s="41"/>
+    </row>
+    <row r="122" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="57"/>
+      <c r="C122" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" customHeight="1" spans="2:5">
-      <c r="B123" s="7" t="s">
+      <c r="E122" s="41"/>
+    </row>
+    <row r="123" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="8" t="s">
+      <c r="D123" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E123" s="9"/>
-    </row>
-    <row r="124" customHeight="1" spans="2:5">
-      <c r="B124" s="7"/>
-      <c r="C124" s="10" t="s">
+      <c r="E123" s="37"/>
+    </row>
+    <row r="124" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" s="5"/>
+      <c r="C124" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D124" s="59" t="s">
+      <c r="D124" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E124" s="9"/>
-    </row>
-    <row r="125" customHeight="1" spans="2:5">
-      <c r="B125" s="15" t="s">
+      <c r="E124" s="37"/>
+    </row>
+    <row r="125" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D125" s="26"/>
-      <c r="E125" s="27"/>
-    </row>
-    <row r="127" customHeight="1" spans="2:5">
+      <c r="D125" s="47"/>
+      <c r="E125" s="48"/>
+    </row>
+    <row r="127" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C127" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="5"/>
-    </row>
-    <row r="128" customHeight="1" spans="2:5">
-      <c r="B128" s="7" t="s">
+      <c r="D127" s="34"/>
+      <c r="E127" s="35"/>
+    </row>
+    <row r="128" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="9"/>
-    </row>
-    <row r="129" ht="55" customHeight="1" spans="2:5">
-      <c r="B129" s="7" t="s">
+      <c r="D128" s="36"/>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="2:5" ht="55.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C129" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="9"/>
-    </row>
-    <row r="130" customHeight="1" spans="2:5">
-      <c r="B130" s="42" t="s">
+      <c r="D129" s="36"/>
+      <c r="E129" s="37"/>
+    </row>
+    <row r="130" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="20"/>
-    </row>
-    <row r="131" customHeight="1" spans="2:5">
-      <c r="B131" s="43"/>
-      <c r="C131" s="10" t="s">
+      <c r="E130" s="41"/>
+    </row>
+    <row r="131" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="56"/>
+      <c r="C131" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="E131" s="20"/>
-    </row>
-    <row r="132" customHeight="1" spans="2:5">
-      <c r="B132" s="43"/>
-      <c r="C132" s="10" t="s">
+      <c r="E131" s="41"/>
+    </row>
+    <row r="132" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="56"/>
+      <c r="C132" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E132" s="20"/>
-    </row>
-    <row r="133" customHeight="1" spans="2:5">
-      <c r="B133" s="43"/>
-      <c r="C133" s="10" t="s">
+      <c r="E132" s="41"/>
+    </row>
+    <row r="133" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="56"/>
+      <c r="C133" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="E133" s="20"/>
-    </row>
-    <row r="134" customHeight="1" spans="2:5">
-      <c r="B134" s="43"/>
-      <c r="C134" s="10" t="s">
+      <c r="E133" s="41"/>
+    </row>
+    <row r="134" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="56"/>
+      <c r="C134" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="E134" s="20"/>
-    </row>
-    <row r="135" customHeight="1" spans="2:5">
-      <c r="B135" s="44"/>
-      <c r="C135" s="10" t="s">
+      <c r="E134" s="41"/>
+    </row>
+    <row r="135" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="57"/>
+      <c r="C135" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="E135" s="20"/>
-    </row>
-    <row r="136" customHeight="1" spans="2:5">
-      <c r="B136" s="7" t="s">
+      <c r="E135" s="41"/>
+    </row>
+    <row r="136" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D136" s="8" t="s">
+      <c r="D136" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E136" s="9"/>
-    </row>
-    <row r="137" customHeight="1" spans="2:5">
-      <c r="B137" s="7"/>
-      <c r="C137" s="10" t="s">
+      <c r="E136" s="37"/>
+    </row>
+    <row r="137" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D137" s="59" t="s">
+      <c r="D137" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E137" s="9"/>
-    </row>
-    <row r="138" customHeight="1" spans="2:5">
-      <c r="B138" s="15" t="s">
+      <c r="E137" s="37"/>
+    </row>
+    <row r="138" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D138" s="26"/>
-      <c r="E138" s="27"/>
-    </row>
-    <row r="140" customHeight="1" spans="2:5">
+      <c r="D138" s="47"/>
+      <c r="E138" s="48"/>
+    </row>
+    <row r="140" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C140" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="D140" s="4"/>
-      <c r="E140" s="5"/>
-    </row>
-    <row r="141" customHeight="1" spans="2:5">
-      <c r="B141" s="7" t="s">
+      <c r="D140" s="34"/>
+      <c r="E140" s="35"/>
+    </row>
+    <row r="141" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="9"/>
-    </row>
-    <row r="142" customHeight="1" spans="2:5">
-      <c r="B142" s="7" t="s">
+      <c r="D141" s="36"/>
+      <c r="E141" s="37"/>
+    </row>
+    <row r="142" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="9"/>
-    </row>
-    <row r="143" customHeight="1" spans="2:5">
-      <c r="B143" s="42" t="s">
+      <c r="D142" s="36"/>
+      <c r="E142" s="37"/>
+    </row>
+    <row r="143" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="C143" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E143" s="20"/>
-    </row>
-    <row r="144" customHeight="1" spans="2:5">
-      <c r="B144" s="43"/>
-      <c r="C144" s="10" t="s">
+      <c r="E143" s="41"/>
+    </row>
+    <row r="144" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="56"/>
+      <c r="C144" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D144" s="51" t="s">
+      <c r="D144" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="E144" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="2:5">
-      <c r="B145" s="43"/>
-      <c r="C145" s="10"/>
-      <c r="D145" s="51" t="s">
+    <row r="145" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="56"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="E145" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="2:5">
-      <c r="B146" s="44"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="51" t="s">
+    <row r="146" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="57"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="E146" s="11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="2:5">
-      <c r="B147" s="7" t="s">
+    <row r="147" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D147" s="8" t="s">
+      <c r="D147" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="E147" s="9"/>
-    </row>
-    <row r="148" customHeight="1" spans="2:5">
-      <c r="B148" s="7"/>
-      <c r="C148" s="10" t="s">
+      <c r="E147" s="37"/>
+    </row>
+    <row r="148" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="5"/>
+      <c r="C148" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D148" s="59" t="s">
+      <c r="D148" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E148" s="9"/>
-    </row>
-    <row r="149" customHeight="1" spans="2:5">
-      <c r="B149" s="15" t="s">
+      <c r="E148" s="37"/>
+    </row>
+    <row r="149" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C149" s="25" t="s">
+      <c r="C149" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D149" s="26"/>
-      <c r="E149" s="27"/>
-    </row>
-    <row r="151" customHeight="1" spans="2:5">
+      <c r="D149" s="47"/>
+      <c r="E149" s="48"/>
+    </row>
+    <row r="151" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C151" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D151" s="4"/>
-      <c r="E151" s="5"/>
-    </row>
-    <row r="152" customHeight="1" spans="2:5">
-      <c r="B152" s="7" t="s">
+      <c r="D151" s="34"/>
+      <c r="E151" s="35"/>
+    </row>
+    <row r="152" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="D152" s="8"/>
-      <c r="E152" s="9"/>
-    </row>
-    <row r="153" ht="53" customHeight="1" spans="2:5">
-      <c r="B153" s="7" t="s">
+      <c r="D152" s="36"/>
+      <c r="E152" s="37"/>
+    </row>
+    <row r="153" spans="2:5" ht="52.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="41" t="s">
+      <c r="C153" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="D153" s="8"/>
-      <c r="E153" s="9"/>
-    </row>
-    <row r="154" customHeight="1" spans="2:5">
-      <c r="B154" s="42" t="s">
+      <c r="D153" s="36"/>
+      <c r="E153" s="37"/>
+    </row>
+    <row r="154" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D154" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E154" s="20"/>
-    </row>
-    <row r="155" customHeight="1" spans="2:5">
-      <c r="B155" s="43"/>
-      <c r="C155" s="10" t="s">
+      <c r="E154" s="41"/>
+    </row>
+    <row r="155" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="56"/>
+      <c r="C155" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D155" s="51" t="s">
+      <c r="D155" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E155" s="13" t="s">
+      <c r="E155" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="2:5">
-      <c r="B156" s="43"/>
-      <c r="C156" s="10" t="s">
+    <row r="156" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="56"/>
+      <c r="C156" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D156" s="51" t="s">
+      <c r="D156" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E156" s="13" t="s">
+      <c r="E156" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="2:5">
-      <c r="B157" s="43"/>
-      <c r="C157" s="10" t="s">
+    <row r="157" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="56"/>
+      <c r="C157" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D157" s="51" t="s">
+      <c r="D157" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="E157" s="13" t="s">
+      <c r="E157" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="2:5">
-      <c r="B158" s="43"/>
-      <c r="C158" s="12" t="s">
+    <row r="158" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="56"/>
+      <c r="C158" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="E158" s="20"/>
-    </row>
-    <row r="159" customHeight="1" spans="2:5">
-      <c r="B159" s="43"/>
-      <c r="C159" s="52"/>
-      <c r="D159" s="60" t="s">
+      <c r="E158" s="41"/>
+    </row>
+    <row r="159" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="56"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E159" s="20"/>
-    </row>
-    <row r="160" customHeight="1" spans="2:5">
-      <c r="B160" s="44"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="19" t="s">
+      <c r="E159" s="41"/>
+    </row>
+    <row r="160" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="57"/>
+      <c r="C160" s="59"/>
+      <c r="D160" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="E160" s="20"/>
-    </row>
-    <row r="161" customHeight="1" spans="2:5">
-      <c r="B161" s="45" t="s">
+      <c r="E160" s="41"/>
+    </row>
+    <row r="161" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="8" t="s">
+      <c r="D161" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="E161" s="9"/>
-    </row>
-    <row r="162" customHeight="1" spans="2:5">
-      <c r="B162" s="46"/>
-      <c r="C162" s="10" t="s">
+      <c r="E161" s="37"/>
+    </row>
+    <row r="162" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="57"/>
+      <c r="C162" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D162" s="59" t="s">
+      <c r="D162" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E162" s="9"/>
-    </row>
-    <row r="163" customHeight="1" spans="2:5">
-      <c r="B163" s="15" t="s">
+      <c r="E162" s="37"/>
+    </row>
+    <row r="163" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D163" s="26"/>
-      <c r="E163" s="27"/>
-    </row>
-    <row r="164" ht="71" customHeight="1" spans="2:5">
-      <c r="B164" s="53" t="s">
+      <c r="D163" s="47"/>
+      <c r="E163" s="48"/>
+    </row>
+    <row r="164" spans="2:5" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C164" s="54" t="s">
+      <c r="C164" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="D164" s="55"/>
-      <c r="E164" s="56"/>
-    </row>
-    <row r="166" customHeight="1" spans="2:5">
+      <c r="D164" s="53"/>
+      <c r="E164" s="54"/>
+    </row>
+    <row r="166" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C166" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D166" s="4"/>
-      <c r="E166" s="5"/>
-    </row>
-    <row r="167" customHeight="1" spans="2:5">
-      <c r="B167" s="7" t="s">
+      <c r="D166" s="34"/>
+      <c r="E166" s="35"/>
+    </row>
+    <row r="167" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D167" s="8"/>
-      <c r="E167" s="9"/>
-    </row>
-    <row r="168" ht="64" customHeight="1" spans="2:5">
-      <c r="B168" s="7" t="s">
+      <c r="C167" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D167" s="36"/>
+      <c r="E167" s="37"/>
+    </row>
+    <row r="168" spans="2:5" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="41" t="s">
+      <c r="C168" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D168" s="8"/>
-      <c r="E168" s="9"/>
-    </row>
-    <row r="169" customHeight="1" spans="2:5">
-      <c r="B169" s="42" t="s">
+      <c r="D168" s="36"/>
+      <c r="E168" s="37"/>
+    </row>
+    <row r="169" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="E169" s="20"/>
-    </row>
-    <row r="170" customHeight="1" spans="2:5">
-      <c r="B170" s="43"/>
-      <c r="C170" s="10" t="s">
+      <c r="E169" s="41"/>
+    </row>
+    <row r="170" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="56"/>
+      <c r="C170" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D170" s="57" t="s">
+      <c r="D170" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="E170" s="58"/>
-    </row>
-    <row r="171" customHeight="1" spans="2:5">
-      <c r="B171" s="15" t="s">
+      <c r="E170" s="41"/>
+    </row>
+    <row r="171" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D171" s="26"/>
-      <c r="E171" s="27"/>
+      <c r="D171" s="47"/>
+      <c r="E171" s="48"/>
+    </row>
+    <row r="172" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="173" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D173" s="34"/>
+      <c r="E173" s="35"/>
+    </row>
+    <row r="174" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C174" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D174" s="36"/>
+      <c r="E174" s="37"/>
+    </row>
+    <row r="175" spans="2:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D175" s="36"/>
+      <c r="E175" s="37"/>
+    </row>
+    <row r="176" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C176" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="47"/>
+      <c r="E176" s="48"/>
+    </row>
+    <row r="177" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D178" s="34"/>
+      <c r="E178" s="35"/>
+    </row>
+    <row r="179" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D179" s="36"/>
+      <c r="E179" s="37"/>
+    </row>
+    <row r="180" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C180" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D180" s="36"/>
+      <c r="E180" s="37"/>
+    </row>
+    <row r="181" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D181" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E181" s="41"/>
+    </row>
+    <row r="182" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="47"/>
+      <c r="E182" s="48"/>
+    </row>
+    <row r="183" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D184" s="34"/>
+      <c r="E184" s="35"/>
+    </row>
+    <row r="185" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C185" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D185" s="36"/>
+      <c r="E185" s="37"/>
+    </row>
+    <row r="186" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C186" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D186" s="36"/>
+      <c r="E186" s="37"/>
+    </row>
+    <row r="187" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D187" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="E187" s="41"/>
+    </row>
+    <row r="188" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C188" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D188" s="47"/>
+      <c r="E188" s="48"/>
+    </row>
+    <row r="189" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="190" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D190" s="34"/>
+      <c r="E190" s="35"/>
+    </row>
+    <row r="191" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D191" s="36"/>
+      <c r="E191" s="37"/>
+    </row>
+    <row r="192" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="D192" s="36"/>
+      <c r="E192" s="37"/>
+    </row>
+    <row r="193" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="D193" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E193" s="41"/>
+    </row>
+    <row r="194" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D194" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E194" s="75"/>
+    </row>
+    <row r="195" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="D195" s="47"/>
+      <c r="E195" s="48"/>
+    </row>
+    <row r="196" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="2:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="D197" s="72"/>
+      <c r="E197" s="73"/>
+    </row>
+    <row r="198" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="66" t="s">
+        <v>178</v>
+      </c>
+      <c r="D198" s="36"/>
+      <c r="E198" s="37"/>
+    </row>
+    <row r="199" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D199" s="36"/>
+      <c r="E199" s="37"/>
+    </row>
+    <row r="200" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D200" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E200" s="41"/>
+    </row>
+    <row r="201" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="56"/>
+      <c r="C201" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D201" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E201" s="41"/>
+    </row>
+    <row r="202" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="C202" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D202" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="E202" s="75"/>
+    </row>
+    <row r="203" spans="2:5" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D203" s="47"/>
+      <c r="E203" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="151">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="C85:E85"/>
-    <mergeCell ref="C86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="C163:E163"/>
-    <mergeCell ref="C164:E164"/>
-    <mergeCell ref="C166:E166"/>
-    <mergeCell ref="C167:E167"/>
-    <mergeCell ref="C168:E168"/>
-    <mergeCell ref="D169:E169"/>
+  <mergeCells count="177">
+    <mergeCell ref="C195:E195"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="B200:B201"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C186:E186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="C188:E188"/>
+    <mergeCell ref="C190:E190"/>
+    <mergeCell ref="C191:E191"/>
+    <mergeCell ref="C192:E192"/>
+    <mergeCell ref="D193:E193"/>
+    <mergeCell ref="C178:E178"/>
+    <mergeCell ref="C179:E179"/>
+    <mergeCell ref="C180:E180"/>
+    <mergeCell ref="D181:E181"/>
+    <mergeCell ref="C182:E182"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="C185:E185"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C173:E173"/>
+    <mergeCell ref="C174:E174"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C176:E176"/>
     <mergeCell ref="D170:E170"/>
     <mergeCell ref="C171:E171"/>
     <mergeCell ref="B103:B109"/>
@@ -4642,49 +4424,176 @@
     <mergeCell ref="B154:B160"/>
     <mergeCell ref="B161:B162"/>
     <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="C104:C105"/>
     <mergeCell ref="C106:C107"/>
     <mergeCell ref="C158:C160"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="C163:E163"/>
+    <mergeCell ref="C164:E164"/>
+    <mergeCell ref="C166:E166"/>
+    <mergeCell ref="C167:E167"/>
+    <mergeCell ref="C168:E168"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="C85:E85"/>
+    <mergeCell ref="C86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>